--- a/Code/Results/Cases/Case_5_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.57449846517247</v>
+        <v>15.10031222304565</v>
       </c>
       <c r="C2">
-        <v>20.8312535012846</v>
+        <v>11.93688335548763</v>
       </c>
       <c r="D2">
-        <v>3.140515042907673</v>
+        <v>5.131882537702682</v>
       </c>
       <c r="E2">
-        <v>9.794524774889885</v>
+        <v>9.893039654352632</v>
       </c>
       <c r="F2">
-        <v>33.16809963131697</v>
+        <v>30.69742812745088</v>
       </c>
       <c r="I2">
-        <v>19.40238577777671</v>
+        <v>22.91209905447371</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.82255881763891</v>
+        <v>16.21238624863642</v>
       </c>
       <c r="N2">
-        <v>11.47007518851383</v>
+        <v>17.73480112790801</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.89969135387888</v>
+        <v>14.49656486284222</v>
       </c>
       <c r="C3">
-        <v>19.32671987562865</v>
+        <v>11.28452866778954</v>
       </c>
       <c r="D3">
-        <v>3.236981358482605</v>
+        <v>5.158064285910764</v>
       </c>
       <c r="E3">
-        <v>9.265036207400698</v>
+        <v>9.806446140188722</v>
       </c>
       <c r="F3">
-        <v>31.34395917090334</v>
+        <v>30.32580373260803</v>
       </c>
       <c r="I3">
-        <v>18.76807668655359</v>
+        <v>22.8648791195312</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.42502902034354</v>
+        <v>15.9208498256995</v>
       </c>
       <c r="N3">
-        <v>11.73648869873265</v>
+        <v>17.80463104271804</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.81878900966856</v>
+        <v>14.11715935678368</v>
       </c>
       <c r="C4">
-        <v>18.35785344419844</v>
+        <v>10.86731478749961</v>
       </c>
       <c r="D4">
-        <v>3.297827183558697</v>
+        <v>5.174906245129845</v>
       </c>
       <c r="E4">
-        <v>8.937872641140034</v>
+        <v>9.75613700604222</v>
       </c>
       <c r="F4">
-        <v>30.21437129224467</v>
+        <v>30.10653554502559</v>
       </c>
       <c r="I4">
-        <v>18.39465157861896</v>
+        <v>22.84271331921623</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.52546004464955</v>
+        <v>15.74425087070027</v>
       </c>
       <c r="N4">
-        <v>11.90321461866315</v>
+        <v>17.84945308448488</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.36487439367975</v>
+        <v>13.96062383440404</v>
       </c>
       <c r="C5">
-        <v>17.95147160330668</v>
+        <v>10.69331013941731</v>
       </c>
       <c r="D5">
-        <v>3.323012061423362</v>
+        <v>5.181962297801123</v>
       </c>
       <c r="E5">
-        <v>8.804120208531502</v>
+        <v>9.736371651987991</v>
       </c>
       <c r="F5">
-        <v>29.75201609382463</v>
+        <v>30.01952353422079</v>
       </c>
       <c r="I5">
-        <v>18.24648633665175</v>
+        <v>22.83539627480172</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.14824669924108</v>
+        <v>15.67299155904075</v>
       </c>
       <c r="N5">
-        <v>11.97197153683823</v>
+        <v>17.8682088108309</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.28868440285225</v>
+        <v>13.9345232355915</v>
       </c>
       <c r="C6">
-        <v>17.88328765055822</v>
+        <v>10.66418272942906</v>
       </c>
       <c r="D6">
-        <v>3.327217160783392</v>
+        <v>5.183145599991933</v>
       </c>
       <c r="E6">
-        <v>8.781887893997423</v>
+        <v>9.733134546498452</v>
       </c>
       <c r="F6">
-        <v>29.67513217436608</v>
+        <v>30.00521950941275</v>
       </c>
       <c r="I6">
-        <v>18.22212501858271</v>
+        <v>22.83428483949073</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.08496302028023</v>
+        <v>15.66120460603623</v>
       </c>
       <c r="N6">
-        <v>11.98343849085383</v>
+        <v>17.87135283214098</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81272205076873</v>
+        <v>14.11505568818165</v>
       </c>
       <c r="C7">
-        <v>18.35241993385836</v>
+        <v>10.86498394410652</v>
       </c>
       <c r="D7">
-        <v>3.298165275048216</v>
+        <v>5.175000624660099</v>
       </c>
       <c r="E7">
-        <v>8.936070413564872</v>
+        <v>9.755867442278921</v>
       </c>
       <c r="F7">
-        <v>30.20814349528246</v>
+        <v>30.10535246115355</v>
       </c>
       <c r="I7">
-        <v>18.39263717137505</v>
+        <v>22.84260769526417</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.52041611495218</v>
+        <v>15.74328684994622</v>
       </c>
       <c r="N7">
-        <v>11.90413856757205</v>
+        <v>17.84970404399677</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.00779724330582</v>
+        <v>14.89409574379574</v>
       </c>
       <c r="C8">
-        <v>20.32170464186584</v>
+        <v>11.71552157644016</v>
       </c>
       <c r="D8">
-        <v>3.173429488000997</v>
+        <v>5.14075104569992</v>
       </c>
       <c r="E8">
-        <v>9.612424483854671</v>
+        <v>9.862599363734876</v>
       </c>
       <c r="F8">
-        <v>32.54130083997142</v>
+        <v>30.56750493762175</v>
       </c>
       <c r="I8">
-        <v>19.18032862935261</v>
+        <v>22.89440047680656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.34917309331247</v>
+        <v>16.11142606986684</v>
       </c>
       <c r="N8">
-        <v>11.56129503727651</v>
+        <v>17.75847515111609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.90605486044455</v>
+        <v>16.34256762864584</v>
       </c>
       <c r="C9">
-        <v>23.83695954240362</v>
+        <v>13.24396669252635</v>
       </c>
       <c r="D9">
-        <v>2.942794821198633</v>
+        <v>5.079661462064379</v>
       </c>
       <c r="E9">
-        <v>10.92060470590821</v>
+        <v>10.09376866516848</v>
       </c>
       <c r="F9">
-        <v>37.03133933362322</v>
+        <v>31.53978443110501</v>
       </c>
       <c r="I9">
-        <v>20.85413525997089</v>
+        <v>23.05010523997669</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.6163010330685</v>
+        <v>16.84798749576563</v>
       </c>
       <c r="N9">
-        <v>10.91300345743589</v>
+        <v>17.59497098773446</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53898077173045</v>
+        <v>17.34669929272456</v>
       </c>
       <c r="C10">
-        <v>26.2256391767988</v>
+        <v>14.27425869691709</v>
       </c>
       <c r="D10">
-        <v>2.784389346198073</v>
+        <v>5.03847308811205</v>
       </c>
       <c r="E10">
-        <v>11.9898352882361</v>
+        <v>10.27574289181344</v>
       </c>
       <c r="F10">
-        <v>40.2753824657392</v>
+        <v>32.28775897434536</v>
       </c>
       <c r="I10">
-        <v>22.16711039213511</v>
+        <v>23.19734239285945</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.83787830398781</v>
+        <v>17.39219442637144</v>
       </c>
       <c r="N10">
-        <v>10.45033863309655</v>
+        <v>17.48416269468308</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.69076686951379</v>
+        <v>17.7884680547886</v>
       </c>
       <c r="C11">
-        <v>27.27460551439422</v>
+        <v>14.72170801620011</v>
       </c>
       <c r="D11">
-        <v>2.715662138938753</v>
+        <v>5.020536217572426</v>
       </c>
       <c r="E11">
-        <v>12.50170664167376</v>
+        <v>10.36088360206447</v>
       </c>
       <c r="F11">
-        <v>41.85745575353774</v>
+        <v>32.63387970454252</v>
       </c>
       <c r="I11">
-        <v>22.78424688448324</v>
+        <v>23.2713806232491</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.81376468463053</v>
+        <v>17.63923393746356</v>
       </c>
       <c r="N11">
-        <v>10.24274764540219</v>
+        <v>17.43576244757022</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.12070969782713</v>
+        <v>17.95345810135599</v>
       </c>
       <c r="C12">
-        <v>27.66683092028178</v>
+        <v>14.88802111071717</v>
       </c>
       <c r="D12">
-        <v>2.690233810539791</v>
+        <v>5.013859008319397</v>
       </c>
       <c r="E12">
-        <v>12.69389767854595</v>
+        <v>10.39343879107918</v>
       </c>
       <c r="F12">
-        <v>42.45492147578166</v>
+        <v>32.76566636058787</v>
       </c>
       <c r="I12">
-        <v>23.0210126948439</v>
+        <v>23.30042263300961</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.17870553253805</v>
+        <v>17.73261094910254</v>
       </c>
       <c r="N12">
-        <v>10.16456292119729</v>
+        <v>17.4177221890837</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.02838334392163</v>
+        <v>17.91802876287656</v>
       </c>
       <c r="C13">
-        <v>27.58257302447627</v>
+        <v>14.85234264833051</v>
       </c>
       <c r="D13">
-        <v>2.69568138515797</v>
+        <v>5.015291944566409</v>
       </c>
       <c r="E13">
-        <v>12.65257443452535</v>
+        <v>10.38641387772297</v>
       </c>
       <c r="F13">
-        <v>42.32637712768656</v>
+        <v>32.73725378515888</v>
       </c>
       <c r="I13">
-        <v>22.96988024704521</v>
+        <v>23.29412337915862</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.10030710814274</v>
+        <v>17.71250965352267</v>
       </c>
       <c r="N13">
-        <v>10.1813821087493</v>
+        <v>17.42159469009615</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.72626061578002</v>
+        <v>17.80208867152746</v>
       </c>
       <c r="C14">
-        <v>27.30697163898682</v>
+        <v>14.73545371180733</v>
       </c>
       <c r="D14">
-        <v>2.713557348313495</v>
+        <v>5.0199845724034</v>
       </c>
       <c r="E14">
-        <v>12.51754962428813</v>
+        <v>10.3635557847338</v>
       </c>
       <c r="F14">
-        <v>41.9066693829002</v>
+        <v>32.64470819100375</v>
       </c>
       <c r="I14">
-        <v>22.80366275168851</v>
+        <v>23.27374984097595</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.84387849337998</v>
+        <v>17.64692009366246</v>
       </c>
       <c r="N14">
-        <v>10.2363066869379</v>
+        <v>17.43427249954299</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.54040508470302</v>
+        <v>17.73076893303019</v>
       </c>
       <c r="C15">
-        <v>27.13752072352915</v>
+        <v>14.6634468360975</v>
       </c>
       <c r="D15">
-        <v>2.724588839057119</v>
+        <v>5.022873933597623</v>
       </c>
       <c r="E15">
-        <v>12.43463736937191</v>
+        <v>10.34959471301088</v>
       </c>
       <c r="F15">
-        <v>41.64919319630578</v>
+        <v>32.58811118004621</v>
       </c>
       <c r="I15">
-        <v>22.70225704533656</v>
+        <v>23.26140106349886</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.68622110274521</v>
+        <v>17.60671947622994</v>
       </c>
       <c r="N15">
-        <v>10.27000561705245</v>
+        <v>17.44207549093069</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46281678299536</v>
+        <v>17.31751418241539</v>
       </c>
       <c r="C16">
-        <v>26.15636360507241</v>
+        <v>14.24458295866185</v>
       </c>
       <c r="D16">
-        <v>2.788957103995268</v>
+        <v>5.039661406295473</v>
       </c>
       <c r="E16">
-        <v>11.9561382988857</v>
+        <v>10.2702241005562</v>
       </c>
       <c r="F16">
-        <v>40.17940060047421</v>
+        <v>32.26524647311814</v>
       </c>
       <c r="I16">
-        <v>22.12719540314761</v>
+        <v>23.19264507798409</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.77343502183078</v>
+        <v>17.37603096345294</v>
       </c>
       <c r="N16">
-        <v>10.46396373428025</v>
+        <v>17.48736608671977</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.79024794070898</v>
+        <v>17.0600447010813</v>
       </c>
       <c r="C17">
-        <v>25.54509202695308</v>
+        <v>13.98212794280221</v>
       </c>
       <c r="D17">
-        <v>2.82937073473862</v>
+        <v>5.050164894820395</v>
       </c>
       <c r="E17">
-        <v>11.65937795880555</v>
+        <v>10.22211954678253</v>
       </c>
       <c r="F17">
-        <v>39.33720341431259</v>
+        <v>32.06859225904221</v>
       </c>
       <c r="I17">
-        <v>21.77963098221132</v>
+        <v>23.15226719862921</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.20483645319741</v>
+        <v>17.23430727059757</v>
       </c>
       <c r="N17">
-        <v>10.58369126980444</v>
+        <v>17.51566390535935</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.39905328644352</v>
+        <v>16.91054869217496</v>
       </c>
       <c r="C18">
-        <v>25.18993225220559</v>
+        <v>13.82917521644661</v>
       </c>
       <c r="D18">
-        <v>2.852920197801413</v>
+        <v>5.056281510802981</v>
       </c>
       <c r="E18">
-        <v>11.48742615169284</v>
+        <v>10.19467473561012</v>
       </c>
       <c r="F18">
-        <v>38.85186256713088</v>
+        <v>31.95604133489206</v>
       </c>
       <c r="I18">
-        <v>21.58157366845298</v>
+        <v>23.1297080719152</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.87449954697334</v>
+        <v>17.15274784033749</v>
       </c>
       <c r="N18">
-        <v>10.65282474013072</v>
+        <v>17.53212901304451</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.26584305985615</v>
+        <v>16.85969492433978</v>
       </c>
       <c r="C19">
-        <v>25.06905578937063</v>
+        <v>13.77704778134614</v>
       </c>
       <c r="D19">
-        <v>2.86094297049199</v>
+        <v>5.058365420992773</v>
       </c>
       <c r="E19">
-        <v>11.42898201524646</v>
+        <v>10.1854215608035</v>
       </c>
       <c r="F19">
-        <v>38.68736568626533</v>
+        <v>31.91803340894736</v>
       </c>
       <c r="I19">
-        <v>21.51482761522797</v>
+        <v>23.1221844488123</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.76207645607321</v>
+        <v>17.12512871338249</v>
       </c>
       <c r="N19">
-        <v>10.67627830344533</v>
+        <v>17.53773629107287</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.86229164931258</v>
+        <v>17.08759938987905</v>
       </c>
       <c r="C20">
-        <v>25.61052981361993</v>
+        <v>14.01027383262413</v>
       </c>
       <c r="D20">
-        <v>2.825036375397695</v>
+        <v>5.049038988221379</v>
       </c>
       <c r="E20">
-        <v>11.69109757763902</v>
+        <v>10.22721739081199</v>
       </c>
       <c r="F20">
-        <v>39.42695091612935</v>
+        <v>32.0894694481349</v>
       </c>
       <c r="I20">
-        <v>21.81643674351321</v>
+        <v>23.15649671611156</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.26570303028089</v>
+        <v>17.24939923441662</v>
       </c>
       <c r="N20">
-        <v>10.57091815763336</v>
+        <v>17.51263200402585</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.81516662609515</v>
+        <v>17.83620647049097</v>
       </c>
       <c r="C21">
-        <v>27.38805438698311</v>
+        <v>14.76987217563939</v>
       </c>
       <c r="D21">
-        <v>2.708289398225016</v>
+        <v>5.018603109551636</v>
       </c>
       <c r="E21">
-        <v>12.55725202282013</v>
+        <v>10.37026143482953</v>
       </c>
       <c r="F21">
-        <v>42.0300285246225</v>
+        <v>32.67187257529871</v>
       </c>
       <c r="I21">
-        <v>22.85239949237539</v>
+        <v>23.27970684548155</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.91931945124895</v>
+        <v>17.66619073768116</v>
       </c>
       <c r="N21">
-        <v>10.22016228277555</v>
+        <v>17.4305409127657</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05548793700329</v>
+        <v>18.31201763722908</v>
       </c>
       <c r="C22">
-        <v>28.52089150206972</v>
+        <v>15.24806781961366</v>
       </c>
       <c r="D22">
-        <v>2.635555183401212</v>
+        <v>4.999382413771744</v>
       </c>
       <c r="E22">
-        <v>13.11390509412068</v>
+        <v>10.46556867344637</v>
       </c>
       <c r="F22">
-        <v>43.76381681479361</v>
+        <v>33.05663579176552</v>
       </c>
       <c r="I22">
-        <v>23.54750625310818</v>
+        <v>23.3660858471495</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.97342598596949</v>
+        <v>17.93754694864522</v>
       </c>
       <c r="N22">
-        <v>9.993421818368887</v>
+        <v>17.37856721350872</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39665464126163</v>
+        <v>18.05933963668498</v>
       </c>
       <c r="C23">
-        <v>27.91876295190227</v>
+        <v>14.99453551045121</v>
       </c>
       <c r="D23">
-        <v>2.673998449232327</v>
+        <v>5.009579442744726</v>
       </c>
       <c r="E23">
-        <v>12.81757506393172</v>
+        <v>10.41454333093988</v>
       </c>
       <c r="F23">
-        <v>42.83990477741517</v>
+        <v>32.85094370068472</v>
       </c>
       <c r="I23">
-        <v>23.17477362829691</v>
+        <v>23.31945180583713</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.41312341504925</v>
+        <v>17.79284498202968</v>
       </c>
       <c r="N23">
-        <v>10.11420027960585</v>
+        <v>17.40615329304031</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82973481471733</v>
+        <v>17.07514649355936</v>
       </c>
       <c r="C24">
-        <v>25.58095704424136</v>
+        <v>13.99755549858197</v>
       </c>
       <c r="D24">
-        <v>2.826994966074</v>
+        <v>5.049547767583442</v>
       </c>
       <c r="E24">
-        <v>11.6767613318032</v>
+        <v>10.22491199598527</v>
       </c>
       <c r="F24">
-        <v>39.38637968023563</v>
+        <v>32.08002927852892</v>
       </c>
       <c r="I24">
-        <v>21.79979138549385</v>
+        <v>23.15458251143718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.23819600032089</v>
+        <v>17.24257640124612</v>
       </c>
       <c r="N24">
-        <v>10.57669194627984</v>
+        <v>17.51400211508582</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.89335745391898</v>
+        <v>15.96051161177794</v>
       </c>
       <c r="C25">
-        <v>22.92141456433312</v>
+        <v>12.84629915081955</v>
       </c>
       <c r="D25">
-        <v>3.003488414439536</v>
+        <v>5.09553856102568</v>
       </c>
       <c r="E25">
-        <v>10.56874760094074</v>
+        <v>10.02900877599988</v>
       </c>
       <c r="F25">
-        <v>35.82658332417209</v>
+        <v>31.27035968232315</v>
       </c>
       <c r="I25">
-        <v>20.38714818903153</v>
+        <v>23.00219624338636</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.76509737839251</v>
+        <v>16.64777455586015</v>
       </c>
       <c r="N25">
-        <v>11.0859355199686</v>
+        <v>17.6375620629165</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.10031222304565</v>
+        <v>23.5744984651725</v>
       </c>
       <c r="C2">
-        <v>11.93688335548763</v>
+        <v>20.83125350128457</v>
       </c>
       <c r="D2">
-        <v>5.131882537702682</v>
+        <v>3.140515042907795</v>
       </c>
       <c r="E2">
-        <v>9.893039654352632</v>
+        <v>9.79452477488987</v>
       </c>
       <c r="F2">
-        <v>30.69742812745088</v>
+        <v>33.16809963131699</v>
       </c>
       <c r="I2">
-        <v>22.91209905447371</v>
+        <v>19.40238577777676</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.21238624863642</v>
+        <v>19.82255881763891</v>
       </c>
       <c r="N2">
-        <v>17.73480112790801</v>
+        <v>11.47007518851387</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.49656486284222</v>
+        <v>21.89969135387901</v>
       </c>
       <c r="C3">
-        <v>11.28452866778954</v>
+        <v>19.32671987562886</v>
       </c>
       <c r="D3">
-        <v>5.158064285910764</v>
+        <v>3.236981358482476</v>
       </c>
       <c r="E3">
-        <v>9.806446140188722</v>
+        <v>9.265036207400779</v>
       </c>
       <c r="F3">
-        <v>30.32580373260803</v>
+        <v>31.34395917090323</v>
       </c>
       <c r="I3">
-        <v>22.8648791195312</v>
+        <v>18.76807668655343</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.9208498256995</v>
+        <v>18.42502902034357</v>
       </c>
       <c r="N3">
-        <v>17.80463104271804</v>
+        <v>11.73648869873249</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.11715935678368</v>
+        <v>20.81878900966852</v>
       </c>
       <c r="C4">
-        <v>10.86731478749961</v>
+        <v>18.35785344419833</v>
       </c>
       <c r="D4">
-        <v>5.174906245129845</v>
+        <v>3.297827183558752</v>
       </c>
       <c r="E4">
-        <v>9.75613700604222</v>
+        <v>8.937872641140004</v>
       </c>
       <c r="F4">
-        <v>30.10653554502559</v>
+        <v>30.21437129224476</v>
       </c>
       <c r="I4">
-        <v>22.84271331921623</v>
+        <v>18.39465157861908</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.74425087070027</v>
+        <v>17.52546004464951</v>
       </c>
       <c r="N4">
-        <v>17.84945308448488</v>
+        <v>11.90321461866322</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.96062383440404</v>
+        <v>20.36487439367974</v>
       </c>
       <c r="C5">
-        <v>10.69331013941731</v>
+        <v>17.95147160330674</v>
       </c>
       <c r="D5">
-        <v>5.181962297801123</v>
+        <v>3.323012061423244</v>
       </c>
       <c r="E5">
-        <v>9.736371651987991</v>
+        <v>8.804120208531565</v>
       </c>
       <c r="F5">
-        <v>30.01952353422079</v>
+        <v>29.75201609382463</v>
       </c>
       <c r="I5">
-        <v>22.83539627480172</v>
+        <v>18.24648633665181</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.67299155904075</v>
+        <v>17.14824669924107</v>
       </c>
       <c r="N5">
-        <v>17.8682088108309</v>
+        <v>11.97197153683823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9345232355915</v>
+        <v>20.28868440285252</v>
       </c>
       <c r="C6">
-        <v>10.66418272942906</v>
+        <v>17.88328765055827</v>
       </c>
       <c r="D6">
-        <v>5.183145599991933</v>
+        <v>3.327217160783454</v>
       </c>
       <c r="E6">
-        <v>9.733134546498452</v>
+        <v>8.781887893997519</v>
       </c>
       <c r="F6">
-        <v>30.00521950941275</v>
+        <v>29.67513217436603</v>
       </c>
       <c r="I6">
-        <v>22.83428483949073</v>
+        <v>18.22212501858252</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.66120460603623</v>
+        <v>17.08496302028032</v>
       </c>
       <c r="N6">
-        <v>17.87135283214098</v>
+        <v>11.98343849085368</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.11505568818165</v>
+        <v>20.81272205076879</v>
       </c>
       <c r="C7">
-        <v>10.86498394410652</v>
+        <v>18.35241993385831</v>
       </c>
       <c r="D7">
-        <v>5.175000624660099</v>
+        <v>3.298165275048158</v>
       </c>
       <c r="E7">
-        <v>9.755867442278921</v>
+        <v>8.936070413564845</v>
       </c>
       <c r="F7">
-        <v>30.10535246115355</v>
+        <v>30.20814349528257</v>
       </c>
       <c r="I7">
-        <v>22.84260769526417</v>
+        <v>18.3926371713751</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.74328684994622</v>
+        <v>17.52041611495221</v>
       </c>
       <c r="N7">
-        <v>17.84970404399677</v>
+        <v>11.90413856757206</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.89409574379574</v>
+        <v>23.00779724330592</v>
       </c>
       <c r="C8">
-        <v>11.71552157644016</v>
+        <v>20.32170464186591</v>
       </c>
       <c r="D8">
-        <v>5.14075104569992</v>
+        <v>3.173429488000932</v>
       </c>
       <c r="E8">
-        <v>9.862599363734876</v>
+        <v>9.612424483854657</v>
       </c>
       <c r="F8">
-        <v>30.56750493762175</v>
+        <v>32.54130083997141</v>
       </c>
       <c r="I8">
-        <v>22.89440047680656</v>
+        <v>19.18032862935254</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.11142606986684</v>
+        <v>19.34917309331253</v>
       </c>
       <c r="N8">
-        <v>17.75847515111609</v>
+        <v>11.56129503727636</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.34256762864584</v>
+        <v>26.90605486044467</v>
       </c>
       <c r="C9">
-        <v>13.24396669252635</v>
+        <v>23.83695954240378</v>
       </c>
       <c r="D9">
-        <v>5.079661462064379</v>
+        <v>2.942794821198524</v>
       </c>
       <c r="E9">
-        <v>10.09376866516848</v>
+        <v>10.92060470590823</v>
       </c>
       <c r="F9">
-        <v>31.53978443110501</v>
+        <v>37.0313393336234</v>
       </c>
       <c r="I9">
-        <v>23.05010523997669</v>
+        <v>20.85413525997097</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.84798749576563</v>
+        <v>22.61630103306858</v>
       </c>
       <c r="N9">
-        <v>17.59497098773446</v>
+        <v>10.91300345743588</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.34669929272456</v>
+        <v>29.53898077173058</v>
       </c>
       <c r="C10">
-        <v>14.27425869691709</v>
+        <v>26.22563917679896</v>
       </c>
       <c r="D10">
-        <v>5.03847308811205</v>
+        <v>2.784389346197943</v>
       </c>
       <c r="E10">
-        <v>10.27574289181344</v>
+        <v>11.98983528823611</v>
       </c>
       <c r="F10">
-        <v>32.28775897434536</v>
+        <v>40.2753824657394</v>
       </c>
       <c r="I10">
-        <v>23.19734239285945</v>
+        <v>22.1671103921352</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.39219442637144</v>
+        <v>24.83787830398792</v>
       </c>
       <c r="N10">
-        <v>17.48416269468308</v>
+        <v>10.45033863309648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7884680547886</v>
+        <v>30.69076686951393</v>
       </c>
       <c r="C11">
-        <v>14.72170801620011</v>
+        <v>27.27460551439419</v>
       </c>
       <c r="D11">
-        <v>5.020536217572426</v>
+        <v>2.715662138938876</v>
       </c>
       <c r="E11">
-        <v>10.36088360206447</v>
+        <v>12.50170664167372</v>
       </c>
       <c r="F11">
-        <v>32.63387970454252</v>
+        <v>41.85745575353786</v>
       </c>
       <c r="I11">
-        <v>23.2713806232491</v>
+        <v>22.78424688448332</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63923393746356</v>
+        <v>25.81376468463056</v>
       </c>
       <c r="N11">
-        <v>17.43576244757022</v>
+        <v>10.2427476454022</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.95345810135599</v>
+        <v>31.12070969782722</v>
       </c>
       <c r="C12">
-        <v>14.88802111071717</v>
+        <v>27.66683092028196</v>
       </c>
       <c r="D12">
-        <v>5.013859008319397</v>
+        <v>2.690233810539748</v>
       </c>
       <c r="E12">
-        <v>10.39343879107918</v>
+        <v>12.69389767854596</v>
       </c>
       <c r="F12">
-        <v>32.76566636058787</v>
+        <v>42.45492147578181</v>
       </c>
       <c r="I12">
-        <v>23.30042263300961</v>
+        <v>23.02101269484392</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.73261094910254</v>
+        <v>26.17870553253814</v>
       </c>
       <c r="N12">
-        <v>17.4177221890837</v>
+        <v>10.16456292119721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.91802876287656</v>
+        <v>31.0283833439218</v>
       </c>
       <c r="C13">
-        <v>14.85234264833051</v>
+        <v>27.58257302447622</v>
       </c>
       <c r="D13">
-        <v>5.015291944566409</v>
+        <v>2.695681385157942</v>
       </c>
       <c r="E13">
-        <v>10.38641387772297</v>
+        <v>12.6525744345253</v>
       </c>
       <c r="F13">
-        <v>32.73725378515888</v>
+        <v>42.32637712768669</v>
       </c>
       <c r="I13">
-        <v>23.29412337915862</v>
+        <v>22.96988024704526</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.71250965352267</v>
+        <v>26.1003071081428</v>
       </c>
       <c r="N13">
-        <v>17.42159469009615</v>
+        <v>10.18138210874932</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.80208867152746</v>
+        <v>30.72626061578002</v>
       </c>
       <c r="C14">
-        <v>14.73545371180733</v>
+        <v>27.30697163898689</v>
       </c>
       <c r="D14">
-        <v>5.0199845724034</v>
+        <v>2.713557348313683</v>
       </c>
       <c r="E14">
-        <v>10.3635557847338</v>
+        <v>12.51754962428817</v>
       </c>
       <c r="F14">
-        <v>32.64470819100375</v>
+        <v>41.90666938290028</v>
       </c>
       <c r="I14">
-        <v>23.27374984097595</v>
+        <v>22.80366275168859</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.64692009366246</v>
+        <v>25.84387849337998</v>
       </c>
       <c r="N14">
-        <v>17.43427249954299</v>
+        <v>10.23630668693788</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.73076893303019</v>
+        <v>30.540405084703</v>
       </c>
       <c r="C15">
-        <v>14.6634468360975</v>
+        <v>27.13752072352903</v>
       </c>
       <c r="D15">
-        <v>5.022873933597623</v>
+        <v>2.724588839057179</v>
       </c>
       <c r="E15">
-        <v>10.34959471301088</v>
+        <v>12.43463736937194</v>
       </c>
       <c r="F15">
-        <v>32.58811118004621</v>
+        <v>41.64919319630573</v>
       </c>
       <c r="I15">
-        <v>23.26140106349886</v>
+        <v>22.7022570453366</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.60671947622994</v>
+        <v>25.68622110274519</v>
       </c>
       <c r="N15">
-        <v>17.44207549093069</v>
+        <v>10.27000561705255</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.31751418241539</v>
+        <v>29.46281678299545</v>
       </c>
       <c r="C16">
-        <v>14.24458295866185</v>
+        <v>26.15636360507249</v>
       </c>
       <c r="D16">
-        <v>5.039661406295473</v>
+        <v>2.788957103995179</v>
       </c>
       <c r="E16">
-        <v>10.2702241005562</v>
+        <v>11.95613829888568</v>
       </c>
       <c r="F16">
-        <v>32.26524647311814</v>
+        <v>40.17940060047424</v>
       </c>
       <c r="I16">
-        <v>23.19264507798409</v>
+        <v>22.12719540314759</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.37603096345294</v>
+        <v>24.77343502183084</v>
       </c>
       <c r="N16">
-        <v>17.48736608671977</v>
+        <v>10.46396373428016</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.0600447010813</v>
+        <v>28.79024794070906</v>
       </c>
       <c r="C17">
-        <v>13.98212794280221</v>
+        <v>25.54509202695307</v>
       </c>
       <c r="D17">
-        <v>5.050164894820395</v>
+        <v>2.829370734738585</v>
       </c>
       <c r="E17">
-        <v>10.22211954678253</v>
+        <v>11.65937795880553</v>
       </c>
       <c r="F17">
-        <v>32.06859225904221</v>
+        <v>39.3372034143127</v>
       </c>
       <c r="I17">
-        <v>23.15226719862921</v>
+        <v>21.77963098221139</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.23430727059757</v>
+        <v>24.20483645319741</v>
       </c>
       <c r="N17">
-        <v>17.51566390535935</v>
+        <v>10.58369126980442</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.91054869217496</v>
+        <v>28.39905328644378</v>
       </c>
       <c r="C18">
-        <v>13.82917521644661</v>
+        <v>25.18993225220572</v>
       </c>
       <c r="D18">
-        <v>5.056281510802981</v>
+        <v>2.852920197801359</v>
       </c>
       <c r="E18">
-        <v>10.19467473561012</v>
+        <v>11.48742615169278</v>
       </c>
       <c r="F18">
-        <v>31.95604133489206</v>
+        <v>38.85186256713102</v>
       </c>
       <c r="I18">
-        <v>23.1297080719152</v>
+        <v>21.58157366845293</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.15274784033749</v>
+        <v>23.87449954697343</v>
       </c>
       <c r="N18">
-        <v>17.53212901304451</v>
+        <v>10.65282474013049</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85969492433978</v>
+        <v>28.26584305985627</v>
       </c>
       <c r="C19">
-        <v>13.77704778134614</v>
+        <v>25.06905578937059</v>
       </c>
       <c r="D19">
-        <v>5.058365420992773</v>
+        <v>2.860942970492069</v>
       </c>
       <c r="E19">
-        <v>10.1854215608035</v>
+        <v>11.42898201524645</v>
       </c>
       <c r="F19">
-        <v>31.91803340894736</v>
+        <v>38.68736568626542</v>
       </c>
       <c r="I19">
-        <v>23.1221844488123</v>
+        <v>21.51482761522804</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.12512871338249</v>
+        <v>23.76207645607322</v>
       </c>
       <c r="N19">
-        <v>17.53773629107287</v>
+        <v>10.67627830344535</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.08759938987905</v>
+        <v>28.86229164931265</v>
       </c>
       <c r="C20">
-        <v>14.01027383262413</v>
+        <v>25.61052981361993</v>
       </c>
       <c r="D20">
-        <v>5.049038988221379</v>
+        <v>2.825036375397761</v>
       </c>
       <c r="E20">
-        <v>10.22721739081199</v>
+        <v>11.69109757763899</v>
       </c>
       <c r="F20">
-        <v>32.0894694481349</v>
+        <v>39.42695091612938</v>
       </c>
       <c r="I20">
-        <v>23.15649671611156</v>
+        <v>21.81643674351318</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.24939923441662</v>
+        <v>24.26570303028094</v>
       </c>
       <c r="N20">
-        <v>17.51263200402585</v>
+        <v>10.5709181576333</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83620647049097</v>
+        <v>30.81516662609518</v>
       </c>
       <c r="C21">
-        <v>14.76987217563939</v>
+        <v>27.38805438698327</v>
       </c>
       <c r="D21">
-        <v>5.018603109551636</v>
+        <v>2.708289398224873</v>
       </c>
       <c r="E21">
-        <v>10.37026143482953</v>
+        <v>12.55725202282011</v>
       </c>
       <c r="F21">
-        <v>32.67187257529871</v>
+        <v>42.03002852462262</v>
       </c>
       <c r="I21">
-        <v>23.27970684548155</v>
+        <v>22.85239949237546</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.66619073768116</v>
+        <v>25.919319451249</v>
       </c>
       <c r="N21">
-        <v>17.4305409127657</v>
+        <v>10.22016228277557</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31201763722908</v>
+        <v>32.05548793700331</v>
       </c>
       <c r="C22">
-        <v>15.24806781961366</v>
+        <v>28.52089150206971</v>
       </c>
       <c r="D22">
-        <v>4.999382413771744</v>
+        <v>2.635555183401306</v>
       </c>
       <c r="E22">
-        <v>10.46556867344637</v>
+        <v>13.11390509412065</v>
       </c>
       <c r="F22">
-        <v>33.05663579176552</v>
+        <v>43.76381681479367</v>
       </c>
       <c r="I22">
-        <v>23.3660858471495</v>
+        <v>23.54750625310824</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.93754694864522</v>
+        <v>26.97342598596949</v>
       </c>
       <c r="N22">
-        <v>17.37856721350872</v>
+        <v>9.993421818368901</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05933963668498</v>
+        <v>31.39665464126168</v>
       </c>
       <c r="C23">
-        <v>14.99453551045121</v>
+        <v>27.91876295190224</v>
       </c>
       <c r="D23">
-        <v>5.009579442744726</v>
+        <v>2.673998449232299</v>
       </c>
       <c r="E23">
-        <v>10.41454333093988</v>
+        <v>12.81757506393171</v>
       </c>
       <c r="F23">
-        <v>32.85094370068472</v>
+        <v>42.83990477741528</v>
       </c>
       <c r="I23">
-        <v>23.31945180583713</v>
+        <v>23.17477362829697</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.79284498202968</v>
+        <v>26.41312341504925</v>
       </c>
       <c r="N23">
-        <v>17.40615329304031</v>
+        <v>10.11420027960584</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.07514649355936</v>
+        <v>28.82973481471732</v>
       </c>
       <c r="C24">
-        <v>13.99755549858197</v>
+        <v>25.58095704424128</v>
       </c>
       <c r="D24">
-        <v>5.049547767583442</v>
+        <v>2.826994966074179</v>
       </c>
       <c r="E24">
-        <v>10.22491199598527</v>
+        <v>11.67676133180327</v>
       </c>
       <c r="F24">
-        <v>32.08002927852892</v>
+        <v>39.3863796802357</v>
       </c>
       <c r="I24">
-        <v>23.15458251143718</v>
+        <v>21.79979138549391</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.24257640124612</v>
+        <v>24.23819600032092</v>
       </c>
       <c r="N24">
-        <v>17.51400211508582</v>
+        <v>10.57669194627986</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.96051161177794</v>
+        <v>25.89335745391901</v>
       </c>
       <c r="C25">
-        <v>12.84629915081955</v>
+        <v>22.92141456433303</v>
       </c>
       <c r="D25">
-        <v>5.09553856102568</v>
+        <v>3.003488414439472</v>
       </c>
       <c r="E25">
-        <v>10.02900877599988</v>
+        <v>10.56874760094074</v>
       </c>
       <c r="F25">
-        <v>31.27035968232315</v>
+        <v>35.82658332417211</v>
       </c>
       <c r="I25">
-        <v>23.00219624338636</v>
+        <v>20.38714818903152</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.64777455586015</v>
+        <v>21.7650973783925</v>
       </c>
       <c r="N25">
-        <v>17.6375620629165</v>
+        <v>11.08593551996857</v>
       </c>
       <c r="O25">
         <v>0</v>
